--- a/inputs/targetsRangeMask.xlsx
+++ b/inputs/targetsRangeMask.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\friedele\Repos\DRFM\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB3A183-92E8-4C48-A9E5-372A7CDAD83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950064F8-6180-439A-87DD-B3642E76AC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="390" windowWidth="21600" windowHeight="11835" xr2:uid="{1A73DCAC-05F6-44F4-89EC-97D45892D8A4}"/>
+    <workbookView xWindow="29865" yWindow="795" windowWidth="23160" windowHeight="14625" xr2:uid="{1A73DCAC-05F6-44F4-89EC-97D45892D8A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -86,8 +89,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8C7F47-36BB-473A-8C1D-3059C9614FE4}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,11 +444,11 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>830827</v>
+      <c r="B2" s="1">
+        <v>70000</v>
       </c>
       <c r="C2">
-        <v>343</v>
+        <v>250</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -453,7 +457,343 @@
         <v>1</v>
       </c>
       <c r="F2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <f>B2+4000</f>
+        <v>74000</v>
+      </c>
+      <c r="C3">
+        <v>250</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B18" si="0">B3+4000</f>
+        <v>78000</v>
+      </c>
+      <c r="C4">
+        <v>250</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>82000</v>
+      </c>
+      <c r="C5">
+        <v>250</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>86000</v>
+      </c>
+      <c r="C6">
+        <v>250</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>90000</v>
+      </c>
+      <c r="C7">
+        <v>250</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>94000</v>
+      </c>
+      <c r="C8">
+        <v>250</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>98000</v>
+      </c>
+      <c r="C9">
+        <v>250</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>102000</v>
+      </c>
+      <c r="C10">
+        <v>250</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>106000</v>
+      </c>
+      <c r="C11">
+        <v>250</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>110000</v>
+      </c>
+      <c r="C12">
+        <v>250</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>114000</v>
+      </c>
+      <c r="C13">
+        <v>250</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>118000</v>
+      </c>
+      <c r="C14">
+        <v>250</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>122000</v>
+      </c>
+      <c r="C15">
+        <v>250</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>126000</v>
+      </c>
+      <c r="C16">
+        <v>250</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>130000</v>
+      </c>
+      <c r="C17">
+        <v>250</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>134000</v>
+      </c>
+      <c r="C18">
+        <v>250</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
